--- a/Src/test-res/mergable_tree_mm/初版、第二版、第三版/绘图.xlsx
+++ b/Src/test-res/mergable_tree_mm/初版、第二版、第三版/绘图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject-Temp\Project.HoitOS\HoitOS\Src\test-painter\raw\mergable_tree_mm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject-Temp\Project.HoitOS\HoitOS\Src\test-res\mergable_tree_mm\初版、第二版、第三版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F481DE-28EC-4355-9365-E938905EE478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41330B-5684-441B-BEAC-D6D08F6B96DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hoitfs-opt</t>
+    <t>hoitfs-mtree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hoitfs-opt</c:v>
+                  <c:v>hoitfs-mtree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1214,7 +1214,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>hoitfs-opt</a:t>
+              <a:t>hoitfs-mtree</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -1268,7 +1268,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hoitfs-opt</c:v>
+                  <c:v>hoitfs-mtree</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3343,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S104" sqref="S104"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
